--- a/TEMOA_Europe_Results/3_Results_ct+_nuc+/_7_Biorefineries.xlsx
+++ b/TEMOA_Europe_Results/3_Results_ct+_nuc+/_7_Biorefineries.xlsx
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>337.6031974009629</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8072.503848055618</v>
+        <v>7756.468996278242</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>163.7248588899407</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3914.44884147223</v>
+        <v>3761.199950831844</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.614756487781582</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>110.3328371131226</v>
+        <v>106.0133567536789</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7361.265669915229</v>
+        <v>7670.875980958863</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -642,31 +642,31 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>138856.2167934875</v>
+        <v>138856.2167934874</v>
       </c>
       <c r="E6">
-        <v>123941.5985029326</v>
+        <v>123932.0481051839</v>
       </c>
       <c r="F6">
-        <v>110538.7721215869</v>
+        <v>110501.3381668568</v>
       </c>
       <c r="G6">
-        <v>127701.5539119987</v>
+        <v>127700.8138338846</v>
       </c>
       <c r="H6">
-        <v>105355.4328113512</v>
+        <v>113077.2294714036</v>
       </c>
       <c r="I6">
-        <v>83334.71287080037</v>
+        <v>106874.4861646517</v>
       </c>
       <c r="J6">
-        <v>72544.81342547468</v>
+        <v>97075.76088283563</v>
       </c>
       <c r="K6">
-        <v>83343.71443007531</v>
+        <v>103419.1717498093</v>
       </c>
       <c r="L6">
-        <v>86756.90348415464</v>
+        <v>92677.67359182275</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -680,31 +680,31 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>3651.799532905322</v>
+        <v>3651.799532905321</v>
       </c>
       <c r="E7">
-        <v>3260.121463772602</v>
+        <v>3260.121463772603</v>
       </c>
       <c r="F7">
-        <v>2907.074999759544</v>
+        <v>2906.090738382264</v>
       </c>
       <c r="G7">
-        <v>3358.441456176794</v>
+        <v>3358.421992756474</v>
       </c>
       <c r="H7">
-        <v>2770.757616864403</v>
+        <v>2973.834253168756</v>
       </c>
       <c r="I7">
-        <v>2191.88513535106</v>
+        <v>2810.707418566772</v>
       </c>
       <c r="J7">
-        <v>1908.262825364377</v>
+        <v>2553.40520977797</v>
       </c>
       <c r="K7">
-        <v>2191.868282563047</v>
+        <v>2721.121027250507</v>
       </c>
       <c r="L7">
-        <v>2281.916821326232</v>
+        <v>2437.343411398801</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -721,28 +721,28 @@
         <v>654.4024762966335</v>
       </c>
       <c r="E8">
-        <v>584.21376630805</v>
+        <v>584.2137663080501</v>
       </c>
       <c r="F8">
-        <v>520.9478399569102</v>
+        <v>520.7714603181017</v>
       </c>
       <c r="G8">
-        <v>601.8327089468813</v>
+        <v>601.8292211019599</v>
       </c>
       <c r="H8">
-        <v>496.5197649421009</v>
+        <v>532.9110981678409</v>
       </c>
       <c r="I8">
-        <v>392.7858162549099</v>
+        <v>503.6787694071654</v>
       </c>
       <c r="J8">
-        <v>341.9606983052964</v>
+        <v>457.5702135922122</v>
       </c>
       <c r="K8">
-        <v>392.7827962352981</v>
+        <v>487.6248880832908</v>
       </c>
       <c r="L8">
-        <v>408.9194943816607</v>
+        <v>436.7719393226651</v>
       </c>
     </row>
   </sheetData>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>56.35181189700282</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1347.298671018349</v>
+        <v>1294.552541216541</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1229.287802452741</v>
+        <v>1281.161565854897</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -880,31 +880,31 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>6544.024762966336</v>
+        <v>6544.024762966343</v>
       </c>
       <c r="E4">
-        <v>5842.137663080502</v>
+        <v>5842.137663080505</v>
       </c>
       <c r="F4">
-        <v>5209.478399569103</v>
+        <v>5207.714603181017</v>
       </c>
       <c r="G4">
-        <v>6018.327089468815</v>
+        <v>6018.292211019602</v>
       </c>
       <c r="H4">
-        <v>4965.197649421009</v>
+        <v>5329.11098167841</v>
       </c>
       <c r="I4">
-        <v>3927.8581625491</v>
+        <v>5036.787694071652</v>
       </c>
       <c r="J4">
-        <v>3419.606983052965</v>
+        <v>4575.702135922122</v>
       </c>
       <c r="K4">
-        <v>3927.827962352981</v>
+        <v>4876.248880832909</v>
       </c>
       <c r="L4">
-        <v>4089.194943816609</v>
+        <v>4367.71939322665</v>
       </c>
     </row>
   </sheetData>
